--- a/IxChariot_Throughput.xlsx
+++ b/IxChariot_Throughput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>LAN 2 WiFi</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>WAN 2 WiFi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：橙色表示开启Qos</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +136,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,6 +241,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,20 +667,20 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
         <v>12</v>
@@ -716,7 +747,7 @@
     </row>
     <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -774,20 +805,20 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4" t="s">
         <v>12</v>
@@ -807,6 +838,13 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/IxChariot_Throughput.xlsx
+++ b/IxChariot_Throughput.xlsx
@@ -1,103 +1,297 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
   <si>
     <t>LAN 2 WiFi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2.4G-20  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2.4G-40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2.4G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5G-80 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Channel 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Channel 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Channel 11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Channel 36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Channel 149</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WAN 2 WiFi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Channel 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2.4G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明：橙色表示开启Qos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>频宽20</t>
+  </si>
+  <si>
+    <t>频宽40</t>
+  </si>
+  <si>
+    <t>R1CL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>流方向</t>
+  </si>
+  <si>
+    <t>R1CL LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论速率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接速率</t>
+  </si>
+  <si>
+    <t>测试方向</t>
+  </si>
+  <si>
+    <t>2.4G-40</t>
+  </si>
+  <si>
+    <t>300Mbps</t>
+  </si>
+  <si>
+    <t>2.4G-20</t>
+  </si>
+  <si>
+    <t>144Mbps</t>
+  </si>
+  <si>
+    <t>5G-11ac</t>
+  </si>
+  <si>
+    <t>866.7Mbps</t>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5GHz-80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4GHz-40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1CM LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2D LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论连接速率</t>
+  </si>
+  <si>
+    <t>连接速率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3A LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4G-40Mhz</t>
+  </si>
+  <si>
+    <t>2.4G-20Mhz</t>
+  </si>
+  <si>
+    <t>5G-80Mhz</t>
+  </si>
+  <si>
+    <t>866Mbps</t>
+  </si>
+  <si>
+    <t>R3G LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论连接速率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4G-40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4G-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G-80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G-80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800Mbps</t>
+  </si>
+  <si>
+    <t>378Mbps</t>
+  </si>
+  <si>
+    <t>1733Mbps</t>
+  </si>
+  <si>
+    <t>5G-160Mhz</t>
+  </si>
+  <si>
+    <t>R3D LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3L LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3P LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3 LAN-WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,8 +339,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,43 +469,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -551,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -562,78 +883,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="14"/>
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
@@ -667,20 +988,20 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
         <v>12</v>
@@ -722,56 +1043,56 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="8" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="G17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="14"/>
+      <c r="H18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
@@ -805,20 +1126,20 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4" t="s">
         <v>12</v>
@@ -840,11 +1161,11 @@
       <c r="I22" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -862,7 +1183,820 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="24">
+        <v>93.007000000000005</v>
+      </c>
+      <c r="C3" s="24">
+        <v>92.631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24">
+        <v>92.751000000000005</v>
+      </c>
+      <c r="C4" s="24">
+        <v>94.138000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18">
+        <v>866.7</v>
+      </c>
+      <c r="D9" s="18">
+        <v>94.498000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>866.7</v>
+      </c>
+      <c r="D10" s="18">
+        <v>94.742999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18">
+        <v>300</v>
+      </c>
+      <c r="D11" s="18">
+        <v>91.224999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="18">
+        <v>300</v>
+      </c>
+      <c r="D12" s="18">
+        <v>94.197000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26">
+        <v>199.244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="26">
+        <v>189.649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="26">
+        <v>108.157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="26">
+        <v>90.262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="26">
+        <v>570.34199999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="26">
+        <v>510.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="26">
+        <v>90.593000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="26">
+        <v>94.465999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="26">
+        <v>92.477999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="26">
+        <v>93.061000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="26">
+        <v>91.802000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="26">
+        <v>93.488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="32">
+        <v>190.142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="32">
+        <v>189.79300000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="32">
+        <v>108.345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="32">
+        <v>112.548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="32">
+        <v>573.55600000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="32">
+        <v>551.726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="26">
+        <v>552.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="26">
+        <v>493.79300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="26">
+        <v>283.60000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="26">
+        <v>269.30200000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="26">
+        <v>938.68200000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="26">
+        <v>939.30600000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="26">
+        <v>922.91899999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="26">
+        <v>929.20600000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="24">
+        <v>93.471000000000004</v>
+      </c>
+      <c r="C59" s="24">
+        <v>93.411000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="24">
+        <v>94.06</v>
+      </c>
+      <c r="C60" s="24">
+        <v>94.272999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="26">
+        <v>525.38599999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="26">
+        <v>535.47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="26">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="26">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="26">
+        <v>94.158000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="26">
+        <v>93.509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="26">
+        <v>93.262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="26">
+        <v>94.603999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="26">
+        <v>94.798000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="26">
+        <v>94.686000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
